--- a/medicine/Enfance/Shen_of_the_Sea/Shen_of_the_Sea.xlsx
+++ b/medicine/Enfance/Shen_of_the_Sea/Shen_of_the_Sea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shen of the Sea est un recueil d'histoires courtes écrites par Arthur Bowie Chrisman. Il a été publié pour la première fois par Dutton en 1925 et illustré par plus de 50 silhouettes dessinées par Else Hasselriis (1878-1953). Chrisman a remporté la médaille Newbery de 1926 pour son œuvre, prix qui reconnait son travail comme la « contribution la plus remarquable de l'année précédente à la littérature américaine pour enfants »[1],[2].
+Shen of the Sea est un recueil d'histoires courtes écrites par Arthur Bowie Chrisman. Il a été publié pour la première fois par Dutton en 1925 et illustré par plus de 50 silhouettes dessinées par Else Hasselriis (1878-1953). Chrisman a remporté la médaille Newbery de 1926 pour son œuvre, prix qui reconnait son travail comme la « contribution la plus remarquable de l'année précédente à la littérature américaine pour enfants »,.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La page de titre originale montre le sous-titre A Book for Children (Un livre pour les enfants) et une des premières jaquettes indique Chinese Stories for Children (Histoires chinoises pour les enfants). Les deux sous-titres ont été utilisés pour les éditions ultérieures.
-Les 16 histoires originales de Chrisman sont écrites dans le style des contes folkloriques chinois humoristiques. L'histoire du titre raconte l'histoire d'un roi qui cherche à piéger des démons de l'eau afin de sauver sa ville d'une inondation. D'autres contes relatent l'origine de plusieurs objets comme les baguettes, la poudre à canon, le cerf-volant ou la porcelaine[3].
+Les 16 histoires originales de Chrisman sont écrites dans le style des contes folkloriques chinois humoristiques. L'histoire du titre raconte l'histoire d'un roi qui cherche à piéger des démons de l'eau afin de sauver sa ville d'une inondation. D'autres contes relatent l'origine de plusieurs objets comme les baguettes, la poudre à canon, le cerf-volant ou la porcelaine.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Récits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ah Mee's Invention (« L'Invention d'Ah Mee ») : sur l'invention de la presse à imprimer ;
 Shen of the Sea : une histoire où un roi trompe des démons pour sauver un royaume ;
@@ -589,7 +605,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le recueil est traduit en août 2021 au Canada pour les pays francophones sous le titre : Shen de la mer: Histoires chinoises pour enfants.
 Arthur Bowie Chrisman (ill. Else Hasselriis), Shen de la mer: Histoires chinoises pour enfants, Independently published, août 2021, 184 p. (ISBN 979-8-4527-5165-6, OCLC 299415)</t>
